--- a/data/trans_bre/P19C05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,13</t>
+          <t>-5,74; 5,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 1,14</t>
+          <t>-8,45; 0,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 6,15</t>
+          <t>-2,66; 6,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,99</t>
+          <t>-3,98; 1,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 44,99</t>
+          <t>-36,96; 47,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 16,94</t>
+          <t>-62,37; 11,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 114,01</t>
+          <t>-30,56; 119,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 32,27</t>
+          <t>-40,01; 31,26</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -0,31</t>
+          <t>-10,41; -0,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -2,82</t>
+          <t>-13,08; -3,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,85</t>
+          <t>-8,01; 0,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -0,95</t>
+          <t>-8,14; -0,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,77; -1,33</t>
+          <t>-64,77; -2,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,98; -19,55</t>
+          <t>-68,88; -21,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,92; 14,17</t>
+          <t>-64,17; 7,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,22; -10,9</t>
+          <t>-58,52; -8,55</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 3,51</t>
+          <t>-8,3; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 14,04</t>
+          <t>1,3; 14,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,18</t>
+          <t>-6,73; 8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 16,85</t>
+          <t>1,76; 16,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 33,92</t>
+          <t>-58,27; 37,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 106,53</t>
+          <t>7,39; 108,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 67,23</t>
+          <t>-40,22; 60,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,11; 529,71</t>
+          <t>12,32; 542,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -0,26</t>
+          <t>-8,12; -0,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,34</t>
+          <t>-6,73; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -1,26</t>
+          <t>-7,29; -1,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -2,19</t>
+          <t>-9,37; -2,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -0,89</t>
+          <t>-41,31; -1,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 2,87</t>
+          <t>-36,86; 2,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,61; -11,12</t>
+          <t>-53,24; -9,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,77; -18,79</t>
+          <t>-70,51; -18,0</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 10,64</t>
+          <t>-0,52; 9,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 11,06</t>
+          <t>0,51; 11,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 8,29</t>
+          <t>-0,8; 8,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 7,29</t>
+          <t>-0,18; 7,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 129,59</t>
+          <t>-4,13; 122,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 72,26</t>
+          <t>2,34; 71,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 103,82</t>
+          <t>-7,08; 101,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 99,73</t>
+          <t>0,73; 107,39</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,66; 24,39</t>
+          <t>17,87; 24,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,45; 22,23</t>
+          <t>14,56; 22,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,72</t>
+          <t>7,41; 14,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,44</t>
+          <t>10,61; 17,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>505,46; —</t>
+          <t>511,41; 5451,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>218,52; 1181,11</t>
+          <t>218,9; 1201,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,31; 658,94</t>
+          <t>96,47; 680,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>173,49; 2450,07</t>
+          <t>169,64; 2573,14</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,43</t>
+          <t>0,56; 4,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,14</t>
+          <t>1,41; 5,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,68</t>
+          <t>-0,81; 2,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,66</t>
+          <t>-0,68; 3,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 34,8</t>
+          <t>3,37; 35,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 37,24</t>
+          <t>8,7; 36,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 27,73</t>
+          <t>-6,99; 26,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 45,42</t>
+          <t>-6,33; 44,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
